--- a/data/trans_bre/P38C-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P38C-Provincia-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>5.498872615363027</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>1.187367177225174</v>
+        <v>1.187367177225163</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.07795412798337543</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.012185810590318</v>
+        <v>0.01218581059031788</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.443940759761273</v>
+        <v>-1.936177299030929</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.553163385492953</v>
+        <v>-0.5287356198677093</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.03415994455637866</v>
+        <v>-0.02436322685466575</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.005637189230295594</v>
+        <v>-0.005344727688769271</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.69940318897528</v>
+        <v>13.66748502625552</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.071942601478366</v>
+        <v>4.161629846889688</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.188353135893029</v>
+        <v>0.2069508697253418</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.04277222837522311</v>
+        <v>0.04386664562571169</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>6.625130283843728</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>8.94340398532113</v>
+        <v>8.943403985321153</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.07556832709871582</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.1189571610828843</v>
+        <v>0.1189571610828846</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.969656074701825</v>
+        <v>3.065671442797242</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.5544136072355</v>
+        <v>2.725030485958921</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.03297966155226997</v>
+        <v>0.03373831593040858</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.03306838152620194</v>
+        <v>0.03310734395795151</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.15665056583493</v>
+        <v>10.13825486999621</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>15.04031851273105</v>
+        <v>15.81036829054159</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.119987857890146</v>
+        <v>0.1182092066074892</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2110300051698921</v>
+        <v>0.2273475260120738</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>2.822289498649744</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>3.630418303791694</v>
+        <v>3.630418303791683</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0.03153678410745073</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.03872473850387523</v>
+        <v>0.03872473850387512</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.38106260054119</v>
+        <v>-1.417290482739587</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2686869960994778</v>
+        <v>0.514888827751156</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.0147498094224171</v>
+        <v>-0.01523810999440093</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.002837140990771024</v>
+        <v>0.005403152047300576</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.021631529758599</v>
+        <v>7.544192192933807</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.538735650324403</v>
+        <v>7.258643307465666</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.07981377238540993</v>
+        <v>0.08618923773473702</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.0829591839195635</v>
+        <v>0.07988383884991714</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.470906725133336</v>
+        <v>-4.759911007570846</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.760060240377872</v>
+        <v>1.526474544255511</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.04615620714819276</v>
+        <v>-0.05071782519167475</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.01988528839223035</v>
+        <v>0.01864411193602776</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.316417773755081</v>
+        <v>3.387116071373792</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.92822993116449</v>
+        <v>14.72495330483975</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.03683191538106795</v>
+        <v>0.03748625207960868</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1934231126720291</v>
+        <v>0.1889231295855485</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>11.23611912036737</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>8.574174728278939</v>
+        <v>8.574174728278894</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>0.1453644451399331</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.10996555436074</v>
+        <v>0.1099655543607394</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.269399482182052</v>
+        <v>3.867721144537719</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.55965819055656</v>
+        <v>1.563264974902334</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.05221434557528831</v>
+        <v>0.04792483369731946</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.01828859490894292</v>
+        <v>0.01995635833210682</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.84478391870069</v>
+        <v>18.47862114697955</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.86178339888862</v>
+        <v>15.76032805965058</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.2483199009631652</v>
+        <v>0.2571068744576395</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.2157906796478616</v>
+        <v>0.2148932708675275</v>
       </c>
     </row>
     <row r="19">
@@ -912,13 +912,13 @@
         <v>6.894140974197205</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>3.696678121947006</v>
+        <v>3.696678121946984</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.08559474853634244</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.03955681757300207</v>
+        <v>0.03955681757300183</v>
       </c>
     </row>
     <row r="20">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4355173852456343</v>
+        <v>1.342960644085782</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.1452613500523131</v>
+        <v>0.04176660423238714</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.007584407881602787</v>
+        <v>0.01622325194118512</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.0009651601800891374</v>
+        <v>0.00114216056780631</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>13.5389381125388</v>
+        <v>14.03009595835861</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.485959247322</v>
+        <v>7.61786170099346</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1788463817310831</v>
+        <v>0.1860624067834035</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.08286510963335503</v>
+        <v>0.08454606170451526</v>
       </c>
     </row>
     <row r="22">
@@ -976,13 +976,13 @@
         <v>9.432285039796584</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>8.371801193346363</v>
+        <v>8.37180119334635</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0.1471447684174942</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>0.1013725152847958</v>
+        <v>0.1013725152847957</v>
       </c>
     </row>
     <row r="23">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.622384073570076</v>
+        <v>4.10133025718002</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.239136856523458</v>
+        <v>3.74733940100949</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>0.06935509225062243</v>
+        <v>0.06129082328667491</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.05016918679813568</v>
+        <v>0.04317806523767137</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>14.91088212195034</v>
+        <v>14.27965212766794</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.50891714128323</v>
+        <v>12.94644620314355</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.2437129313931002</v>
+        <v>0.2350211183836274</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.1589325974721191</v>
+        <v>0.1641126287928455</v>
       </c>
     </row>
     <row r="25">
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.223308825926783</v>
+        <v>2.451858319938895</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.858422281285007</v>
+        <v>4.432751618558282</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.02437759075149972</v>
+        <v>0.02702067007835765</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.0615668889519058</v>
+        <v>0.07063442115170722</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>7.82251766668805</v>
+        <v>8.153158102348165</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>13.57946449519052</v>
+        <v>14.04889919148412</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.08924914034163142</v>
+        <v>0.09441347815523633</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2392592834084627</v>
+        <v>0.2503348178152904</v>
       </c>
     </row>
     <row r="28">
@@ -1104,13 +1104,13 @@
         <v>5.96663150713227</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>7.186119106534539</v>
+        <v>7.186119106534528</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>0.07323359947463934</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>0.09055344611489202</v>
+        <v>0.09055344611489187</v>
       </c>
     </row>
     <row r="29">
@@ -1121,16 +1121,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>4.253840705342325</v>
+        <v>4.197141439436405</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>5.18237495872567</v>
+        <v>5.148450608193945</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>0.05163883296471231</v>
+        <v>0.05065910529043836</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>0.06419151541831064</v>
+        <v>0.06344289468512533</v>
       </c>
     </row>
     <row r="30">
@@ -1141,16 +1141,16 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.645241890468128</v>
+        <v>7.856512911503446</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.307003031380546</v>
+        <v>9.298026946054122</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>0.09555481217854778</v>
+        <v>0.09731316709498382</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>0.1192602839145287</v>
+        <v>0.1187628384193022</v>
       </c>
     </row>
     <row r="31">
